--- a/website_support/import_data/granjas.xlsx
+++ b/website_support/import_data/granjas.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="marco"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16335" windowHeight="10830"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16335" windowHeight="10830" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
@@ -13,22 +13,109 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1555104870" val="944" rev="123" rev64="64" revOS="3"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1555104870" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1555104870" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1555104870"/>
+      <pm:revision xmlns:pm="smNativeData" day="1560278096" val="944" rev="123" rev64="64" revOS="3"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1560278096" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1560278096" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1560278096"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Granja1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Supervisando/Granja</t>
+  </si>
+  <si>
+    <t>Luz Alvarez</t>
+  </si>
+  <si>
+    <t>gerencia@avicampo.com.mx</t>
+  </si>
+  <si>
+    <t>Johana González</t>
+  </si>
+  <si>
+    <t>Johana.gonzalez@avicampo.com.mx</t>
+  </si>
+  <si>
+    <t>Granja 1</t>
+  </si>
+  <si>
+    <t>Granja 2</t>
+  </si>
+  <si>
+    <t>Granja 3</t>
+  </si>
+  <si>
+    <t>Granja 4</t>
+  </si>
+  <si>
+    <t>Granja 5</t>
+  </si>
+  <si>
+    <t>Granja 6</t>
+  </si>
+  <si>
+    <t>Granja 7</t>
+  </si>
+  <si>
+    <t>Granja 8</t>
+  </si>
+  <si>
+    <t>Granja 9</t>
+  </si>
+  <si>
+    <t>Granja 10</t>
+  </si>
+  <si>
+    <t>Granja 11</t>
+  </si>
+  <si>
+    <t>Granja 12A</t>
+  </si>
+  <si>
+    <t>Granja 12B</t>
+  </si>
+  <si>
+    <t>Granja 12C</t>
+  </si>
+  <si>
+    <t>Granja 12D</t>
+  </si>
+  <si>
+    <t>Granja 13</t>
+  </si>
+  <si>
+    <t>Granja 14</t>
+  </si>
+  <si>
+    <t>Granja 15</t>
+  </si>
+  <si>
+    <t>Maravillas</t>
+  </si>
+  <si>
+    <t>Miguel Coronado</t>
+  </si>
+  <si>
+    <t>miguel.coronado@avicampo.com.mx</t>
+  </si>
+  <si>
+    <t>Cuarteles</t>
+  </si>
+  <si>
+    <t>Bueyera 1</t>
+  </si>
+  <si>
+    <t>Bueyera 2</t>
   </si>
 </sst>
 </file>
@@ -53,7 +140,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1555104870" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1560278096" ulstyle="none">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -68,7 +155,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1555104870" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1560278096" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -101,7 +188,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1555104870"/>
+          <pm:border xmlns:pm="smNativeData" id="1560278096"/>
         </ext>
       </extLst>
     </border>
@@ -121,10 +208,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1555104870" count="1">
-        <pm:charStyle name="Normal" fontId="1" Id="1"/>
+      <pm:charStyles xmlns:pm="smNativeData" id="1560278096" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1555104870" count="29">
+      <pm:colors xmlns:pm="smNativeData" id="1560278096" count="29">
         <pm:color name="Magenta oscuro" rgb="800080"/>
         <pm:color name="Siempreviva" rgb="9999FF"/>
         <pm:color name="Ciruela" rgb="993366"/>
@@ -208,7 +295,7 @@
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Basic Sans"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface="Basic Roman"/>
         <a:cs typeface="Basic Roman"/>
       </a:minorFont>
@@ -390,32 +477,165 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
   <cols>
-    <col min="1" max="1" width="31.252252" customWidth="1"/>
+    <col min="1" max="1" width="14.864865" customWidth="1"/>
+    <col min="2" max="2" width="30.792793" customWidth="1"/>
+    <col min="3" max="3" width="17.756757" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1">
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1555104870" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1560278096" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -426,14 +646,14 @@
     <oddFooter>&amp;L&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1555104870" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1555104870" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1560278096" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1560278096" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1555104870" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560278096" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
